--- a/docs/organization-deqm.xlsx
+++ b/docs/organization-deqm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="396">
   <si>
     <t>Path</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: W5 Mapping</t>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Organization</t>
@@ -146,23 +146,20 @@
     <t>*</t>
   </si>
   <si>
-    <t>US Core Organization Profile</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, etc.</t>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
-  </si>
-  <si>
-    <t>administrative.group</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -200,7 +197,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -216,11 +213,10 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -239,10 +235,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>extensible</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -268,17 +264,13 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -301,7 +293,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -321,10 +313,10 @@
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -339,7 +331,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -385,7 +381,7 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>id</t>
+    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -395,10 +391,10 @@
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -407,7 +403,7 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -423,13 +419,13 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary (If known)</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -441,7 +437,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -463,13 +459,15 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -491,13 +489,13 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>NPI preferred (http://hl7.org/fhir/sid/us-npi), Tax id is allowed (http://hl7.org/fhir/sid/us-tin), Local id is allowed in addition to 'authoritative' identifier.</t>
+    <t>NPI preferred (http://hl7.org/fhir/sid/us-npi), Tax id is allowed (http://hl7.org/fhir/sid/us-tin), Local id is allowed in addition to another identifier supplied by a jurisdictional authority such as a practitioner's *Drug Enforcement Administration (DEA)* number.</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -521,7 +519,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/cqframework/qi-core/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -646,15 +644,14 @@
     <t>Whether the organization's record is still in active use.</t>
   </si>
   <si>
-    <t>Default is true.
-This active flag is not intended to be used to mark an organizations as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
 This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -666,7 +663,7 @@
     <t>.status</t>
   </si>
   <si>
-    <t>status</t>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -689,7 +686,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization</t>
+    <t>Used to categorize the organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -701,7 +698,7 @@
     <t>.code</t>
   </si>
   <si>
-    <t>class</t>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -731,10 +728,10 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
@@ -757,7 +754,7 @@
     <t>A contact detail for the organization.</t>
   </si>
   <si>
-    <t>The use code home is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
   </si>
   <si>
     <t>Human contact for the organization.</t>
@@ -793,7 +790,7 @@
     <t>An address for the organization.</t>
   </si>
   <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code home is not to be used.</t>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -822,13 +819,13 @@
     <t>Organization.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old - purpose of this address</t>
+    <t>home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
     <t>The purpose of this address.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old address etc.for a current/permanent one. Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
     <t>Allows an appropriate address to be chosen from a list of many.</t>
@@ -837,10 +834,10 @@
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use</t>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.0</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -864,13 +861,16 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type</t>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.0</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -885,10 +885,10 @@
     <t>Text representation of the address</t>
   </si>
   <si>
-    <t>A full text representation of the address.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts.</t>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -909,13 +909,13 @@
     <t>Organization.address.line</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Street name, number, direction &amp; P.O. Box etc.</t>
   </si>
   <si>
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>home | work | temp | old - purpose of this address.</t>
   </si>
   <si>
     <t>137 Nowhere Street</t>
@@ -943,7 +943,7 @@
     <t>Name of city, town etc.</t>
   </si>
   <si>
-    <t>The name of the city, town, village or other community or delivery center.</t>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -999,13 +999,13 @@
     <t>Sub-unit of country (abbreviations ok)</t>
   </si>
   <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/usps-state</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1057,7 +1057,7 @@
     <t>Country - a nation as commonly understood or generally accepted.</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a full country name.</t>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1085,8 +1085,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T07:00:00-07:00"/&gt;
-  &lt;end value="2010-06-30T07:00:00-07:00"/&gt;
+  &lt;start value="2010-03-22T21:00:00-07:00"/&gt;
+  &lt;end value="2010-06-30T21:00:00-07:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -1137,7 +1137,7 @@
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -1157,7 +1157,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1175,7 +1179,7 @@
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
-    <t>The purpose for which you would contact a contact party</t>
+    <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
@@ -1437,7 +1441,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1451,7 +1455,7 @@
     <col min="36" max="36" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1679,12 +1683,12 @@
         <v>47</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1695,28 +1699,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1766,13 +1770,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1795,7 +1799,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1806,25 +1810,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1875,13 +1879,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1904,7 +1908,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1915,28 +1919,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1986,13 +1990,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -2015,7 +2019,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2026,7 +2030,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -2038,16 +2042,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2073,37 +2077,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -2126,18 +2130,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -2149,16 +2153,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2208,28 +2212,28 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -2237,11 +2241,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2260,16 +2264,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2319,7 +2323,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2340,7 +2344,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -2348,11 +2352,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2371,16 +2375,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2430,7 +2434,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2451,7 +2455,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>40</v>
@@ -2459,11 +2463,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2476,24 +2480,26 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2562,7 +2568,7 @@
         <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>40</v>
@@ -2570,7 +2576,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2578,32 +2584,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2640,17 +2646,17 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2659,27 +2665,27 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2690,7 +2696,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2702,13 +2708,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2759,13 +2765,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2780,7 +2786,7 @@
         <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2788,11 +2794,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2811,16 +2817,16 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2858,19 +2864,19 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2891,7 +2897,7 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2899,7 +2905,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2910,31 +2916,31 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2959,52 +2965,52 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3023,31 +3029,31 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3072,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>144</v>
@@ -3102,7 +3108,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -3117,7 +3123,7 @@
         <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3133,22 +3139,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>149</v>
@@ -3215,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3249,19 +3255,19 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>159</v>
@@ -3326,7 +3332,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3360,16 +3366,16 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>168</v>
@@ -3435,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3469,16 +3475,16 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>176</v>
@@ -3546,7 +3552,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>184</v>
@@ -3582,29 +3588,29 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3653,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3668,21 +3674,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3693,7 +3699,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3705,13 +3711,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3762,13 +3768,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3783,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3791,11 +3797,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3814,16 +3820,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3861,19 +3867,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3894,7 +3900,7 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3913,31 +3919,31 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3962,52 +3968,52 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4015,7 +4021,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4026,28 +4032,28 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>186</v>
@@ -4075,7 +4081,7 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>144</v>
@@ -4105,7 +4111,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4120,7 +4126,7 @@
         <v>147</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4136,22 +4142,22 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>188</v>
@@ -4218,7 +4224,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4252,19 +4258,19 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>159</v>
@@ -4329,7 +4335,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4363,16 +4369,16 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>168</v>
@@ -4438,7 +4444,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4472,16 +4478,16 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>176</v>
@@ -4549,7 +4555,7 @@
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>190</v>
@@ -4585,29 +4591,29 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4656,7 +4662,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4671,21 +4677,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4696,7 +4702,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4708,13 +4714,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4765,13 +4771,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4786,7 +4792,7 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4794,11 +4800,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4817,16 +4823,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4864,19 +4870,19 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4897,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4905,7 +4911,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4916,31 +4922,31 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4965,52 +4971,52 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5018,7 +5024,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5029,28 +5035,28 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>186</v>
@@ -5078,7 +5084,7 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>144</v>
@@ -5108,7 +5114,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5123,7 +5129,7 @@
         <v>147</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5139,22 +5145,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>192</v>
@@ -5221,7 +5227,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5255,19 +5261,19 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>159</v>
@@ -5332,7 +5338,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5366,16 +5372,16 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>168</v>
@@ -5441,7 +5447,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5475,16 +5481,16 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>176</v>
@@ -5552,7 +5558,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5583,19 +5589,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>195</v>
@@ -5613,9 +5619,11 @@
         <v>199</v>
       </c>
       <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5702,16 +5710,16 @@
         <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>206</v>
@@ -5787,7 +5795,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>213</v>
@@ -5809,22 +5817,22 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>217</v>
@@ -5891,7 +5899,7 @@
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>185</v>
@@ -5937,7 +5945,7 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>225</v>
@@ -6035,13 +6043,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6148,13 +6156,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6239,7 +6247,7 @@
         <v>247</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>248</v>
@@ -6264,7 +6272,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6276,13 +6284,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6333,13 +6341,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6354,7 +6362,7 @@
         <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6366,7 +6374,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6385,16 +6393,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6432,19 +6440,19 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB45" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB45" t="s" s="2">
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6465,7 +6473,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6484,19 +6492,19 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>253</v>
@@ -6533,7 +6541,7 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>258</v>
@@ -6563,7 +6571,7 @@
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6597,19 +6605,19 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>265</v>
@@ -6617,7 +6625,9 @@
       <c r="L47" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6630,7 +6640,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6642,13 +6652,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6666,13 +6676,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6684,7 +6694,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>263</v>
@@ -6695,7 +6705,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6706,31 +6716,31 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6743,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6779,13 +6789,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6797,10 +6807,10 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6808,7 +6818,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6819,30 +6829,28 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6854,7 +6862,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -6890,7 +6898,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6905,13 +6913,13 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6919,36 +6927,36 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6963,7 +6971,7 @@
         <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>40</v>
@@ -6999,13 +7007,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -7014,13 +7022,13 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7028,39 +7036,39 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7074,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>40</v>
@@ -7110,13 +7118,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7128,10 +7136,10 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7139,36 +7147,36 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7195,13 +7203,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7219,13 +7227,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7234,13 +7242,13 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7248,36 +7256,36 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7292,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>40</v>
@@ -7328,13 +7336,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7343,21 +7351,21 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7368,28 +7376,28 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7439,13 +7447,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7454,13 +7462,13 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7468,7 +7476,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7479,29 +7487,29 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7514,7 +7522,7 @@
         <v>40</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>40</v>
@@ -7550,13 +7558,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7568,10 +7576,10 @@
         <v>172</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7579,7 +7587,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7590,29 +7598,29 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7661,13 +7669,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7676,13 +7684,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7690,7 +7698,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7713,19 +7721,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7774,7 +7782,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7786,7 +7794,7 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
@@ -7795,7 +7803,7 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7803,7 +7811,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7814,7 +7822,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7826,13 +7834,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7883,13 +7891,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7904,7 +7912,7 @@
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -7912,11 +7920,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7935,16 +7943,16 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7994,7 +8002,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8015,7 +8023,7 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8023,11 +8031,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8040,24 +8048,26 @@
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8105,7 +8115,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8126,7 +8136,7 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8134,7 +8144,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8145,7 +8155,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8157,17 +8167,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8192,13 +8202,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8216,13 +8226,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8237,7 +8247,7 @@
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8245,7 +8255,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8256,7 +8266,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8268,17 +8278,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8327,13 +8337,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8345,10 +8355,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8356,7 +8366,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8382,14 +8392,14 @@
         <v>230</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8438,7 +8448,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8456,10 +8466,10 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8467,7 +8477,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8478,7 +8488,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8493,14 +8503,14 @@
         <v>241</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8549,13 +8559,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8567,10 +8577,10 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8578,7 +8588,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8592,7 +8602,7 @@
         <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8601,17 +8611,17 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8660,7 +8670,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8681,7 +8691,7 @@
         <v>40</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>

--- a/docs/organization-deqm.xlsx
+++ b/docs/organization-deqm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="394">
   <si>
     <t>Path</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
+    <t>Mapping: W5 Mapping</t>
   </si>
   <si>
     <t>Organization</t>
@@ -146,20 +146,23 @@
     <t>*</t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+    <t>US Core Organization Profile</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
+  </si>
+  <si>
+    <t>administrative.group</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -197,7 +200,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -213,10 +216,11 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -235,10 +239,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -264,13 +268,17 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -293,7 +301,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -313,10 +321,10 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -331,11 +339,7 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -381,7 +385,7 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
+    <t>id</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -391,10 +395,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -403,7 +407,7 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -419,13 +423,13 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
+    <t>usual | official | temp | secondary (If known)</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -437,7 +441,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -459,15 +463,13 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -489,13 +491,13 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>NPI preferred (http://hl7.org/fhir/sid/us-npi), Tax id is allowed (http://hl7.org/fhir/sid/us-tin), Local id is allowed in addition to another identifier supplied by a jurisdictional authority such as a practitioner's *Drug Enforcement Administration (DEA)* number.</t>
+    <t>NPI preferred (http://hl7.org/fhir/sid/us-npi), Tax id is allowed (http://hl7.org/fhir/sid/us-tin), Local id is allowed in addition to 'authoritative' identifier.</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -519,7 +521,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/us/core/STU2/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>123456</t>
@@ -602,7 +604,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
     &lt;code value="PRN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -619,7 +621,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
     &lt;code value="TAX"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -644,14 +646,15 @@
     <t>Whether the organization's record is still in active use.</t>
   </si>
   <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+    <t>Default is true.
+This active flag is not intended to be used to mark an organizations as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
 This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>true</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -663,7 +666,7 @@
     <t>.status</t>
   </si>
   <si>
-    <t>FiveWs.status</t>
+    <t>status</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -686,7 +689,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization.</t>
+    <t>Used to categorize the organization</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -698,7 +701,7 @@
     <t>.code</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
+    <t>class</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -728,10 +731,10 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
@@ -754,7 +757,7 @@
     <t>A contact detail for the organization.</t>
   </si>
   <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+    <t>The use code home is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
   </si>
   <si>
     <t>Human contact for the organization.</t>
@@ -790,7 +793,7 @@
     <t>An address for the organization.</t>
   </si>
   <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code home is not to be used.</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -819,13 +822,13 @@
     <t>Organization.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
+    <t>home | work | temp | old - purpose of this address</t>
   </si>
   <si>
     <t>The purpose of this address.</t>
   </si>
   <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old address etc.for a current/permanent one. Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
     <t>Allows an appropriate address to be chosen from a list of many.</t>
@@ -834,10 +837,10 @@
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.0</t>
+    <t>The use of an address</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -861,16 +864,13 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.0</t>
+    <t>The type of an address (physical / postal)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -885,10 +885,10 @@
     <t>Text representation of the address</t>
   </si>
   <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+    <t>A full text representation of the address.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts.</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -909,13 +909,13 @@
     <t>Organization.address.line</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Street name, number, direction &amp; P.O. Box etc.</t>
   </si>
   <si>
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>home | work | temp | old - purpose of this address.</t>
   </si>
   <si>
     <t>137 Nowhere Street</t>
@@ -943,7 +943,7 @@
     <t>Name of city, town etc.</t>
   </si>
   <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>The name of the city, town, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -999,13 +999,13 @@
     <t>Sub-unit of country (abbreviations ok)</t>
   </si>
   <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+    <t>http://hl7.org/fhir/ValueSet/usps-state</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1057,7 +1057,7 @@
     <t>Country - a nation as commonly understood or generally accepted.</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+    <t>ISO 3166 3 letter codes can be used in place of a full country name.</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1085,8 +1085,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T21:00:00-07:00"/&gt;
-  &lt;end value="2010-06-30T21:00:00-07:00"/&gt;
+  &lt;start value="2010-03-22T06:00:00-07:00"/&gt;
+  &lt;end value="2010-06-30T07:00:00-07:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -1137,7 +1137,7 @@
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -1157,11 +1157,7 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1179,7 +1175,7 @@
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
-    <t>The purpose for which you would contact a contact party.</t>
+    <t>The purpose for which you would contact a contact party</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
@@ -1441,7 +1437,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1455,7 +1451,7 @@
     <col min="36" max="36" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1683,12 +1679,12 @@
         <v>47</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1699,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -1708,19 +1704,19 @@
         <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1770,13 +1766,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1799,7 +1795,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1810,7 +1806,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>40</v>
@@ -1819,16 +1815,16 @@
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1879,13 +1875,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1908,7 +1904,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1919,28 +1915,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1990,13 +1986,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -2019,7 +2015,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2030,7 +2026,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -2042,16 +2038,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2077,13 +2073,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -2101,13 +2097,13 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -2130,18 +2126,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -2153,16 +2149,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2212,16 +2208,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -2233,7 +2229,7 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -2241,11 +2237,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2264,16 +2260,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2323,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2344,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -2352,11 +2348,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2375,16 +2371,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2434,7 +2430,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2455,7 +2451,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>40</v>
@@ -2463,11 +2459,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2480,26 +2476,24 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2547,7 +2541,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2568,7 +2562,7 @@
         <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>40</v>
@@ -2576,7 +2570,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2584,32 +2578,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2646,17 +2640,17 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2665,27 +2659,27 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2696,7 +2690,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2708,13 +2702,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2765,13 +2759,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2786,7 +2780,7 @@
         <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2794,11 +2788,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2817,16 +2811,16 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2864,19 +2858,19 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2897,7 +2891,7 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2905,7 +2899,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2916,31 +2910,31 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2965,13 +2959,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2989,13 +2983,13 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -3007,10 +3001,10 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -3018,7 +3012,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3029,7 +3023,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3038,22 +3032,22 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3078,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>144</v>
@@ -3108,7 +3102,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -3123,7 +3117,7 @@
         <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3139,22 +3133,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>149</v>
@@ -3221,7 +3215,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3255,7 +3249,7 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -3264,10 +3258,10 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>159</v>
@@ -3332,7 +3326,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3366,7 +3360,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3375,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>168</v>
@@ -3441,7 +3435,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3475,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3484,7 +3478,7 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>176</v>
@@ -3552,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3575,7 +3569,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>184</v>
@@ -3588,29 +3582,29 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3659,7 +3653,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3674,21 +3668,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3699,7 +3693,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3711,13 +3705,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3768,13 +3762,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3789,7 +3783,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3797,11 +3791,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3820,16 +3814,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3867,19 +3861,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3900,7 +3894,7 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3908,7 +3902,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3919,31 +3913,31 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3968,13 +3962,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3992,13 +3986,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -4010,10 +4004,10 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4021,7 +4015,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4032,28 +4026,28 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>186</v>
@@ -4081,7 +4075,7 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>144</v>
@@ -4111,7 +4105,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4126,7 +4120,7 @@
         <v>147</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4142,22 +4136,22 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>188</v>
@@ -4224,7 +4218,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4258,7 +4252,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4267,10 +4261,10 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>159</v>
@@ -4335,7 +4329,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4369,7 +4363,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4378,7 +4372,7 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>168</v>
@@ -4444,7 +4438,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4478,7 +4472,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4487,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>176</v>
@@ -4555,7 +4549,7 @@
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4578,7 +4572,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>190</v>
@@ -4591,29 +4585,29 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4662,7 +4656,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4677,21 +4671,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4702,7 +4696,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4714,13 +4708,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4771,13 +4765,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4792,7 +4786,7 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4800,11 +4794,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4823,16 +4817,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4870,19 +4864,19 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4903,7 +4897,7 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4911,7 +4905,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4922,31 +4916,31 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4971,13 +4965,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4995,13 +4989,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -5013,10 +5007,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5024,7 +5018,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5035,28 +5029,28 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>186</v>
@@ -5084,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>144</v>
@@ -5114,7 +5108,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5129,7 +5123,7 @@
         <v>147</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5145,22 +5139,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>192</v>
@@ -5227,7 +5221,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5261,7 +5255,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5270,10 +5264,10 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>159</v>
@@ -5338,7 +5332,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5372,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5381,7 +5375,7 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>168</v>
@@ -5447,7 +5441,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5481,7 +5475,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5490,7 +5484,7 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>176</v>
@@ -5558,7 +5552,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5589,19 +5583,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>195</v>
@@ -5619,11 +5613,9 @@
         <v>199</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P38" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5673,7 +5665,7 @@
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5710,16 +5702,16 @@
         <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>206</v>
@@ -5795,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>213</v>
@@ -5817,22 +5809,22 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>217</v>
@@ -5899,7 +5891,7 @@
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>185</v>
@@ -5945,7 +5937,7 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>225</v>
@@ -6043,13 +6035,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6156,13 +6148,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6247,7 +6239,7 @@
         <v>247</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>248</v>
@@ -6272,7 +6264,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6284,13 +6276,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6341,13 +6333,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6362,7 +6354,7 @@
         <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6374,7 +6366,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6393,16 +6385,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6440,19 +6432,19 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6473,7 +6465,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6492,19 +6484,19 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>253</v>
@@ -6541,7 +6533,7 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>258</v>
@@ -6571,7 +6563,7 @@
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6605,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6614,10 +6606,10 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>265</v>
@@ -6625,9 +6617,7 @@
       <c r="L47" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6640,61 +6630,61 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X47" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="T47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X47" t="s" s="2">
+      <c r="Y47" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>263</v>
@@ -6705,7 +6695,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6716,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6725,22 +6715,22 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6753,64 +6743,64 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="T48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6818,7 +6808,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6829,28 +6819,30 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K49" t="s" s="2">
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6862,43 +6854,43 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6913,13 +6905,13 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6927,36 +6919,36 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6971,64 +6963,64 @@
         <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="T50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7036,18 +7028,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7056,19 +7048,19 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7082,64 +7074,64 @@
         <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="T51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7147,36 +7139,36 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7203,52 +7195,52 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7256,36 +7248,36 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7300,72 +7292,72 @@
         <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7376,28 +7368,28 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7447,28 +7439,28 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7476,7 +7468,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7487,7 +7479,7 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7496,20 +7488,20 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7522,49 +7514,49 @@
         <v>40</v>
       </c>
       <c r="S55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="T55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7576,10 +7568,10 @@
         <v>172</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7587,7 +7579,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7598,7 +7590,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7607,20 +7599,20 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7669,13 +7661,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7684,13 +7676,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7698,7 +7690,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7721,19 +7713,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7782,7 +7774,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7794,16 +7786,16 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7811,7 +7803,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7822,7 +7814,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7834,13 +7826,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7891,13 +7883,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7912,7 +7904,7 @@
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -7920,11 +7912,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7943,16 +7935,16 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8002,7 +7994,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8023,7 +8015,7 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8031,11 +8023,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8048,26 +8040,24 @@
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8115,7 +8105,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8136,7 +8126,7 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8144,7 +8134,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8155,7 +8145,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8167,17 +8157,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8202,52 +8192,52 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8255,7 +8245,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8266,7 +8256,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8278,17 +8268,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8337,13 +8327,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8355,10 +8345,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8366,7 +8356,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8392,14 +8382,14 @@
         <v>230</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8448,7 +8438,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8466,10 +8456,10 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8477,7 +8467,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8488,7 +8478,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8503,14 +8493,14 @@
         <v>241</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8559,13 +8549,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8577,10 +8567,10 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8588,7 +8578,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8602,7 +8592,7 @@
         <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8611,17 +8601,17 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8670,7 +8660,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8691,7 +8681,7 @@
         <v>40</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>

--- a/docs/organization-deqm.xlsx
+++ b/docs/organization-deqm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: W5 Mapping</t>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Organization</t>
@@ -146,23 +146,20 @@
     <t>*</t>
   </si>
   <si>
-    <t>US Core Organization Profile</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, etc.</t>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
-  </si>
-  <si>
-    <t>administrative.group</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -200,7 +197,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -216,11 +213,10 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -239,10 +235,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>extensible</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -268,17 +264,13 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -301,7 +293,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -321,10 +313,10 @@
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -339,7 +331,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -361,7 +357,7 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -385,7 +381,7 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>id</t>
+    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -395,10 +391,10 @@
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -407,7 +403,7 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -423,13 +419,13 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary (If known)</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -441,7 +437,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -463,13 +459,15 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -491,13 +489,13 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>NPI preferred (http://hl7.org/fhir/sid/us-npi), Tax id is allowed (http://hl7.org/fhir/sid/us-tin), Local id is allowed in addition to 'authoritative' identifier.</t>
+    <t>NPI preferred (http://hl7.org/fhir/sid/us-npi), Tax id is allowed (http://hl7.org/fhir/sid/us-tin), Local id is allowed in addition to another identifier supplied by a jurisdictional authority such as a practitioner's *Drug Enforcement Administration (DEA)* number.</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -521,7 +519,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/us/core/STU2/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -595,42 +593,33 @@
     <t>npi</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+      &lt;code value="PRN"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+  &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
   <si>
-    <t>Reducing ambiquity and increases efficiency.  If not present, receiving system has to know that value in system is for NPI or TIN.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
-    &lt;code value="PRN"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>National Provider Identifier (NPI)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/sid/us-npi</t>
-  </si>
-  <si>
     <t>tin</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
-    &lt;code value="TAX"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>U.S. IRS Assigned Employer Identification Number EIN (TIN)</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.4.2</t>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+      &lt;code value="TAX"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+  &lt;system value="urn:oid:2.16.840.1.113883.4.2"/&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -646,15 +635,14 @@
     <t>Whether the organization's record is still in active use.</t>
   </si>
   <si>
-    <t>Default is true.
-This active flag is not intended to be used to mark an organizations as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
 This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
@@ -666,7 +654,7 @@
     <t>.status</t>
   </si>
   <si>
-    <t>status</t>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -689,7 +677,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization</t>
+    <t>Used to categorize the organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -701,7 +689,7 @@
     <t>.code</t>
   </si>
   <si>
-    <t>class</t>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -731,10 +719,10 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
@@ -757,7 +745,7 @@
     <t>A contact detail for the organization.</t>
   </si>
   <si>
-    <t>The use code home is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
   </si>
   <si>
     <t>Human contact for the organization.</t>
@@ -793,7 +781,7 @@
     <t>An address for the organization.</t>
   </si>
   <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code home is not to be used.</t>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -822,13 +810,13 @@
     <t>Organization.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old - purpose of this address</t>
+    <t>home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
     <t>The purpose of this address.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old address etc.for a current/permanent one. Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
     <t>Allows an appropriate address to be chosen from a list of many.</t>
@@ -837,10 +825,10 @@
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use</t>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.0</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -864,13 +852,16 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type</t>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.0</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -885,10 +876,10 @@
     <t>Text representation of the address</t>
   </si>
   <si>
-    <t>A full text representation of the address.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts.</t>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -909,13 +900,13 @@
     <t>Organization.address.line</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Street name, number, direction &amp; P.O. Box etc.</t>
   </si>
   <si>
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>home | work | temp | old - purpose of this address.</t>
   </si>
   <si>
     <t>137 Nowhere Street</t>
@@ -943,7 +934,7 @@
     <t>Name of city, town etc.</t>
   </si>
   <si>
-    <t>The name of the city, town, village or other community or delivery center.</t>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -999,13 +990,13 @@
     <t>Sub-unit of country (abbreviations ok)</t>
   </si>
   <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/usps-state</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1057,7 +1048,7 @@
     <t>Country - a nation as commonly understood or generally accepted.</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a full country name.</t>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1085,8 +1076,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T06:00:00-07:00"/&gt;
-  &lt;end value="2010-06-30T07:00:00-07:00"/&gt;
+  &lt;start value="2010-03-22T21:00:00-07:00"/&gt;
+  &lt;end value="2010-06-30T21:00:00-07:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -1137,7 +1128,7 @@
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -1157,7 +1148,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1175,7 +1170,7 @@
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
-    <t>The purpose for which you would contact a contact party</t>
+    <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
@@ -1437,7 +1432,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1451,7 +1446,7 @@
     <col min="36" max="36" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1679,12 +1674,12 @@
         <v>47</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1695,28 +1690,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1766,13 +1761,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1795,7 +1790,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1806,25 +1801,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1875,13 +1870,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1904,7 +1899,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1915,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1986,13 +1981,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -2015,7 +2010,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2026,7 +2021,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -2038,16 +2033,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2073,37 +2068,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -2126,18 +2121,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -2149,16 +2144,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2208,28 +2203,28 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -2237,11 +2232,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2260,16 +2255,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2319,7 +2314,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2340,7 +2335,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -2348,11 +2343,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2371,16 +2366,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2430,7 +2425,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2451,7 +2446,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>40</v>
@@ -2459,11 +2454,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2476,24 +2471,26 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2541,7 +2538,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2562,7 +2559,7 @@
         <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>40</v>
@@ -2570,7 +2567,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2578,32 +2575,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2640,17 +2637,17 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2659,27 +2656,27 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2690,7 +2687,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2702,13 +2699,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2759,13 +2756,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2780,7 +2777,7 @@
         <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2788,11 +2785,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2811,16 +2808,16 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2858,19 +2855,19 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2891,7 +2888,7 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2899,7 +2896,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2910,31 +2907,31 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2959,52 +2956,52 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3023,31 +3020,31 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3072,7 +3069,7 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>144</v>
@@ -3102,7 +3099,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -3117,7 +3114,7 @@
         <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3133,22 +3130,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>149</v>
@@ -3215,7 +3212,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3249,19 +3246,19 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>159</v>
@@ -3326,7 +3323,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -3360,16 +3357,16 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>168</v>
@@ -3435,7 +3432,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3469,16 +3466,16 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>176</v>
@@ -3546,7 +3543,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>184</v>
@@ -3582,29 +3579,29 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3614,7 +3611,7 @@
         <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>40</v>
@@ -3653,7 +3650,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3662,27 +3659,27 @@
         <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3693,7 +3690,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3705,13 +3702,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3762,13 +3759,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3783,7 +3780,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3791,11 +3788,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3814,16 +3811,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3861,19 +3858,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3894,7 +3891,7 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3913,31 +3910,31 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3962,60 +3959,60 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4026,38 +4023,38 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>40</v>
@@ -4075,7 +4072,7 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>144</v>
@@ -4105,7 +4102,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4120,7 +4117,7 @@
         <v>147</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4136,25 +4133,25 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>150</v>
@@ -4170,7 +4167,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>40</v>
@@ -4218,7 +4215,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4252,19 +4249,19 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>159</v>
@@ -4329,7 +4326,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4363,16 +4360,16 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>168</v>
@@ -4438,7 +4435,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4472,16 +4469,16 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>176</v>
@@ -4549,7 +4546,7 @@
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4572,10 +4569,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
@@ -4585,29 +4582,29 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4617,7 +4614,7 @@
         <v>40</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>40</v>
@@ -4656,7 +4653,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4665,27 +4662,27 @@
         <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4696,7 +4693,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4708,13 +4705,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4765,13 +4762,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4786,7 +4783,7 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4794,11 +4791,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4817,16 +4814,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4864,19 +4861,19 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4897,7 +4894,7 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4905,7 +4902,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4916,31 +4913,31 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4965,60 +4962,60 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5029,38 +5026,38 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5078,7 +5075,7 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>144</v>
@@ -5108,7 +5105,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5123,7 +5120,7 @@
         <v>147</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5139,25 +5136,25 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>150</v>
@@ -5173,7 +5170,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5221,7 +5218,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5255,19 +5252,19 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>159</v>
@@ -5332,7 +5329,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5366,16 +5363,16 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>168</v>
@@ -5441,7 +5438,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5475,16 +5472,16 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>176</v>
@@ -5552,7 +5549,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5575,7 +5572,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5583,112 +5580,114 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5702,28 +5701,28 @@
         <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5748,13 +5747,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5772,7 +5771,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5787,21 +5786,21 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5809,34 +5808,34 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5885,28 +5884,28 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5914,7 +5913,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5937,19 +5936,19 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5998,7 +5997,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6019,7 +6018,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -6027,7 +6026,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6035,13 +6034,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6050,19 +6049,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6111,7 +6110,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6120,19 +6119,19 @@
         <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6140,7 +6139,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6148,13 +6147,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6163,19 +6162,19 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6224,7 +6223,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6233,19 +6232,19 @@
         <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6253,7 +6252,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6264,7 +6263,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6276,13 +6275,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6333,13 +6332,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6354,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6362,11 +6361,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6385,16 +6384,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6432,19 +6431,19 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB45" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AB45" t="s" s="2">
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6465,7 +6464,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6473,7 +6472,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6484,31 +6483,31 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6521,64 +6520,64 @@
         <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="T46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6586,7 +6585,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6597,27 +6596,29 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6630,64 +6631,64 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="T47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AL47" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6695,7 +6696,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6706,31 +6707,31 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6743,7 +6744,7 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6779,13 +6780,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6797,10 +6798,10 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6808,7 +6809,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6819,30 +6820,28 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -6890,7 +6889,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6905,13 +6904,13 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6919,36 +6918,36 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6963,64 +6962,64 @@
         <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7028,39 +7027,39 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7074,7 +7073,7 @@
         <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>40</v>
@@ -7110,13 +7109,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7128,10 +7127,10 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7139,36 +7138,36 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7195,52 +7194,52 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7248,36 +7247,36 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7292,72 +7291,72 @@
         <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7368,28 +7367,28 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7439,13 +7438,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7454,13 +7453,13 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7468,7 +7467,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7479,29 +7478,29 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7514,7 +7513,7 @@
         <v>40</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>40</v>
@@ -7550,13 +7549,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7568,10 +7567,10 @@
         <v>172</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7579,7 +7578,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7590,29 +7589,29 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7661,13 +7660,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7676,13 +7675,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7690,7 +7689,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7713,19 +7712,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7774,7 +7773,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7786,7 +7785,7 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
@@ -7795,7 +7794,7 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7803,7 +7802,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7814,7 +7813,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7826,13 +7825,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7883,13 +7882,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7904,7 +7903,7 @@
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -7912,11 +7911,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7935,16 +7934,16 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7994,7 +7993,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8015,7 +8014,7 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8023,11 +8022,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8040,24 +8039,26 @@
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8126,7 +8127,7 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8134,7 +8135,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8145,7 +8146,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8157,17 +8158,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8192,13 +8193,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8216,13 +8217,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8237,7 +8238,7 @@
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8245,7 +8246,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8256,7 +8257,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8268,17 +8269,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8327,13 +8328,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8345,10 +8346,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8356,7 +8357,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8379,17 +8380,17 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8438,7 +8439,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8456,10 +8457,10 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8467,7 +8468,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8478,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8490,17 +8491,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8549,13 +8550,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8567,10 +8568,10 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8578,7 +8579,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8592,7 +8593,7 @@
         <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8601,17 +8602,17 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8660,7 +8661,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8681,7 +8682,7 @@
         <v>40</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
